--- a/bin/testData/TestData.xlsx
+++ b/bin/testData/TestData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="127">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -977,6 +977,9 @@
         <v>25</v>
       </c>
       <c r="M4" s="4"/>
+      <c r="N4" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">

--- a/bin/testData/TestData.xlsx
+++ b/bin/testData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="118">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -345,9 +345,6 @@
     <t>atul.kaushal@innoeye.com</t>
   </si>
   <si>
-    <t>Admin@124</t>
-  </si>
-  <si>
     <t>Fail</t>
   </si>
   <si>
@@ -357,35 +354,36 @@
     <t>Valid</t>
   </si>
   <si>
-    <t>Indore south zone</t>
-  </si>
-  <si>
-    <t>InValid</t>
-  </si>
-  <si>
     <t>result</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>User_02</t>
+  </si>
+  <si>
+    <t>User_04</t>
+  </si>
+  <si>
+    <t>Admin@125</t>
+  </si>
+  <si>
     <t>Loginregressioncases</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>User_02</t>
-  </si>
-  <si>
-    <t>User_04</t>
-  </si>
-  <si>
-    <t>Admin@125</t>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Indore south oppolo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,7 +422,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -471,12 +469,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -501,6 +512,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -806,15 +820,15 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" style="15" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="15" width="29.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -831,7 +845,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -847,7 +861,7 @@
     </row>
     <row r="3" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
@@ -858,7 +872,9 @@
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -948,7 +964,9 @@
       <c r="D9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -1041,9 +1059,7 @@
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>114</v>
-      </c>
+      <c r="A16" s="5"/>
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
@@ -1100,13 +1116,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.85546875" style="13" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="29.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="13" width="15.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="20.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1188,12 +1204,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1233,15 +1249,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1263,10 +1279,13 @@
         <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1284,14 +1303,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="26.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="26.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1361,12 +1380,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1689,67 +1708,73 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="27.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>110</v>
+      <c r="D3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="C3" r:id="rId4"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId3"/>
+    <hyperlink ref="C2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1757,83 +1782,85 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="42" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="42.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>117</v>
+      <c r="B4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
-    <hyperlink ref="C3" r:id="rId3" display="Admin@124"/>
-    <hyperlink ref="B4" r:id="rId4"/>
+    <hyperlink ref="C2" r:id="rId1" display="Admin@124"/>
+    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/bin/testData/TestData.xlsx
+++ b/bin/testData/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="118">
   <si>
     <t>Test Case Name</t>
   </si>

--- a/bin/testData/TestData.xlsx
+++ b/bin/testData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="170">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -315,21 +315,12 @@
     <t>09:35 PM-04:45 PM</t>
   </si>
   <si>
-    <t>04/02/2017</t>
-  </si>
-  <si>
     <t>11:30 PM-04:45 PM</t>
   </si>
   <si>
     <t>job 1</t>
   </si>
   <si>
-    <t>job 2</t>
-  </si>
-  <si>
-    <t>12:15 AM-04:45 PM</t>
-  </si>
-  <si>
     <t>SendSms_Test</t>
   </si>
   <si>
@@ -376,6 +367,171 @@
   </si>
   <si>
     <t>Indore south oppolo</t>
+  </si>
+  <si>
+    <t>Excel job 3</t>
+  </si>
+  <si>
+    <t>Excel job 4</t>
+  </si>
+  <si>
+    <t>Excel job 5</t>
+  </si>
+  <si>
+    <t>Excel job 6</t>
+  </si>
+  <si>
+    <t>Excel job 7</t>
+  </si>
+  <si>
+    <t>Excel job 8</t>
+  </si>
+  <si>
+    <t>Excel job 9</t>
+  </si>
+  <si>
+    <t>Excel job 10</t>
+  </si>
+  <si>
+    <t>Excel job 11</t>
+  </si>
+  <si>
+    <t>Excel job 12</t>
+  </si>
+  <si>
+    <t>08:15 PM-04:45 PM</t>
+  </si>
+  <si>
+    <t>7897897894</t>
+  </si>
+  <si>
+    <t>Atul Kumar</t>
+  </si>
+  <si>
+    <t>Dinesh</t>
+  </si>
+  <si>
+    <t>Manoj Kumar</t>
+  </si>
+  <si>
+    <t>Gaurav</t>
+  </si>
+  <si>
+    <t>Azim</t>
+  </si>
+  <si>
+    <t>Aanand Bazar Indore</t>
+  </si>
+  <si>
+    <t>Taresh</t>
+  </si>
+  <si>
+    <t>7897897891</t>
+  </si>
+  <si>
+    <t>7897897895</t>
+  </si>
+  <si>
+    <t>7897897893</t>
+  </si>
+  <si>
+    <t>7897897855</t>
+  </si>
+  <si>
+    <t>7897897888</t>
+  </si>
+  <si>
+    <t>7897897899</t>
+  </si>
+  <si>
+    <t>7897897887</t>
+  </si>
+  <si>
+    <t>7897897843</t>
+  </si>
+  <si>
+    <t>7897897876</t>
+  </si>
+  <si>
+    <t>job 3</t>
+  </si>
+  <si>
+    <t>job 4</t>
+  </si>
+  <si>
+    <t>job 5</t>
+  </si>
+  <si>
+    <t>job 6</t>
+  </si>
+  <si>
+    <t>job 7</t>
+  </si>
+  <si>
+    <t>job 8</t>
+  </si>
+  <si>
+    <t>job 9</t>
+  </si>
+  <si>
+    <t>job 10</t>
+  </si>
+  <si>
+    <t>job 11</t>
+  </si>
+  <si>
+    <t>job 12</t>
+  </si>
+  <si>
+    <t>Patnipura Chauraha, Nanda Nagar</t>
+  </si>
+  <si>
+    <t>Navlakha, Vidya Nagar, Indore</t>
+  </si>
+  <si>
+    <t>Vijay Nagar, Scheme No 54</t>
+  </si>
+  <si>
+    <t>Khajrana Rd, Goyal Vihar Avenue, Indore</t>
+  </si>
+  <si>
+    <t>Anurag Nagar, Indore</t>
+  </si>
+  <si>
+    <t>10:30 PM-04:45 PM</t>
+  </si>
+  <si>
+    <t>11:15 PM-04:45 PM</t>
+  </si>
+  <si>
+    <t>10:45 PM-04:45 PM</t>
+  </si>
+  <si>
+    <t>10:00 PM-04:45 PM</t>
+  </si>
+  <si>
+    <t>08:00 PM-04:45 PM</t>
+  </si>
+  <si>
+    <t>04/05/2017</t>
+  </si>
+  <si>
+    <t>Savindnagar Indore</t>
+  </si>
+  <si>
+    <t>LIG Square, Indore</t>
+  </si>
+  <si>
+    <t>Eastern Ring Rd indore</t>
+  </si>
+  <si>
+    <t>khajrana indore</t>
+  </si>
+  <si>
+    <t>Savindnagar indore</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -820,13 +976,13 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" style="15" width="29.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.7109375" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="23.42578125" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="19.7109375" collapsed="true"/>
   </cols>
@@ -845,7 +1001,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -861,7 +1017,7 @@
     </row>
     <row r="3" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
@@ -873,7 +1029,7 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -881,7 +1037,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
@@ -889,7 +1045,9 @@
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -965,7 +1123,7 @@
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1030,7 +1188,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>12</v>
@@ -1108,10 +1266,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,7 +1277,7 @@
     <col min="1" max="1" customWidth="true" width="29.140625" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="20.0" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="66.85546875" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="13.5703125" collapsed="true"/>
     <col min="6" max="6" customWidth="true" style="13" width="15.85546875" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="20.28515625" collapsed="true"/>
@@ -1159,38 +1317,189 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>76</v>
+        <v>168</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>97</v>
+        <v>163</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+        <v>158</v>
+      </c>
       <c r="J2" t="s">
         <v>39</v>
       </c>
     </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Test@123"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1249,7 +1558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1279,7 +1588,7 @@
         <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>42</v>
@@ -1444,13 +1753,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" customWidth="true" width="25.5703125" collapsed="true"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I1" s="1"/>
@@ -1489,8 +1801,54 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="J7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1664,7 +2022,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>88</v>
@@ -1679,16 +2037,44 @@
         <v>37</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
       <c r="J16" t="s">
         <v>39</v>
       </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I18" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1729,24 +2115,24 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
@@ -1754,7 +2140,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
@@ -1763,7 +2149,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E3" t="s">
         <v>39</v>
@@ -1806,21 +2192,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
@@ -1829,13 +2215,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
@@ -1844,13 +2230,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" t="s">
